--- a/data_requests/df_tendances.xlsx
+++ b/data_requests/df_tendances.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienmbarki/Documents/Doctorat/Publications/Article 2/Data/Code/data_requests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC992F4A-D6BD-8842-A6AF-B8FDB1926949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="167">
   <si>
     <t>playlist_name</t>
   </si>
@@ -73,21 +79,6 @@
     <t>tempo</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>track_href</t>
-  </si>
-  <si>
-    <t>analysis_url</t>
-  </si>
-  <si>
     <t>duration_ms</t>
   </si>
   <si>
@@ -530,724 +521,13 @@
   </si>
   <si>
     <t>Ibrahim Maalouf</t>
-  </si>
-  <si>
-    <t>audio_features</t>
-  </si>
-  <si>
-    <t>11C4y2Yz1XbHmaQwO06s9f</t>
-  </si>
-  <si>
-    <t>7zhmazCm877yScXIQfeMh0</t>
-  </si>
-  <si>
-    <t>5fSpVOafE3DSUs0xztUf6k</t>
-  </si>
-  <si>
-    <t>5oKu1Ey6XNDXv5B3LG7kn9</t>
-  </si>
-  <si>
-    <t>6jWlNmq2YtAsRXBTyFS1S3</t>
-  </si>
-  <si>
-    <t>7MFWYTlrC81IGpb0Jwgdu7</t>
-  </si>
-  <si>
-    <t>3iB8eciGU9vZkaDYkz7Ir9</t>
-  </si>
-  <si>
-    <t>2Mz7HwloqFNdA6iZeZk5PJ</t>
-  </si>
-  <si>
-    <t>4OjJAGDDZTLlTNeOMBl7UM</t>
-  </si>
-  <si>
-    <t>3zZhUs6p17cb84VDaSHZ2X</t>
-  </si>
-  <si>
-    <t>3XIEWK1V9n25PS9Vb6axj5</t>
-  </si>
-  <si>
-    <t>7rIovIsXE6kMn629b7kDig</t>
-  </si>
-  <si>
-    <t>2mT0YKSgM8ie4Irf0gkuPA</t>
-  </si>
-  <si>
-    <t>0C9qil6cXEEJ8AzrMUEHv6</t>
-  </si>
-  <si>
-    <t>3Q76RJ43ot3GrOSW8tE2MQ</t>
-  </si>
-  <si>
-    <t>4iNPp0BZ4lBu7bipdWLcWk</t>
-  </si>
-  <si>
-    <t>3xbws1uOAaxeTPEviKWONY</t>
-  </si>
-  <si>
-    <t>0Phj7ixjnkGM8aahaEgrTC</t>
-  </si>
-  <si>
-    <t>0hFK73Z6tXs6S5YFPL72eW</t>
-  </si>
-  <si>
-    <t>3Z2tPWiNiIpg8UMMoowHIk</t>
-  </si>
-  <si>
-    <t>2u5I0S8cTkP9jYnLItZIGA</t>
-  </si>
-  <si>
-    <t>0G2DnO1M5FUDgWp9xD0ifR</t>
-  </si>
-  <si>
-    <t>19q7EMl3ZeHQ6SBihkWptc</t>
-  </si>
-  <si>
-    <t>49l4Fv41jWi2TGCsPmseKY</t>
-  </si>
-  <si>
-    <t>7GbqE3MlkKosIaCvf50JRK</t>
-  </si>
-  <si>
-    <t>4UDmDIqJIbrW0hMBQMFOsM</t>
-  </si>
-  <si>
-    <t>46eu3SBuFCXWsPT39Yg3tJ</t>
-  </si>
-  <si>
-    <t>4VWbPQUPvLes814r6T11Jz</t>
-  </si>
-  <si>
-    <t>3mDe07njc5shNJSjzkSMUa</t>
-  </si>
-  <si>
-    <t>1kAl7tpw3oKnK1seYQ9PIh</t>
-  </si>
-  <si>
-    <t>1Ek1OEhcEw9gRr5fxVizhk</t>
-  </si>
-  <si>
-    <t>20RHWjtCLr7ODGQEItdZXg</t>
-  </si>
-  <si>
-    <t>5klPZRehMLpiKUchPAzKyR</t>
-  </si>
-  <si>
-    <t>3uBlI0TvJ1QGOPesQ7yL6W</t>
-  </si>
-  <si>
-    <t>6YJrz5WxB02vFvZZoZFK9t</t>
-  </si>
-  <si>
-    <t>0iCHWjdI0saDg2BZq36OvD</t>
-  </si>
-  <si>
-    <t>0a8sR4JpMM4mcFNItKOjRg</t>
-  </si>
-  <si>
-    <t>0DDNj4fVw7JNrXXuVfqI0l</t>
-  </si>
-  <si>
-    <t>3tYSZZjpt5lth5lZbWdQVR</t>
-  </si>
-  <si>
-    <t>2TxCwUlqaOH3TIyJqGgR91</t>
-  </si>
-  <si>
-    <t>0GjEhVFGZW8afUYGChu3Rr</t>
-  </si>
-  <si>
-    <t>4MpqiN2moRQR2t0DO43MZH</t>
-  </si>
-  <si>
-    <t>1T5Q8MLqpSoiuQDvZ2ygkg</t>
-  </si>
-  <si>
-    <t>0NdMo8e9qtwhMsmrkUURHd</t>
-  </si>
-  <si>
-    <t>1eldTykrnkEBLX41bk5eMw</t>
-  </si>
-  <si>
-    <t>5bOWPM362XpMa8zn6UR9te</t>
-  </si>
-  <si>
-    <t>30D9x5LFgL2o9xidjX2wtE</t>
-  </si>
-  <si>
-    <t>2aZzYnRRP6RNa6VVW1sNCl</t>
-  </si>
-  <si>
-    <t>4UMPPga9jtAqvZSKjxeJ29</t>
-  </si>
-  <si>
-    <t>3TqoXM2sHgEFXgd1ywgyZf</t>
-  </si>
-  <si>
-    <t>73rdSdXmVo02WBgUMIvh9L</t>
-  </si>
-  <si>
-    <t>3cXteS7JTe3VtA8OIoWwAb</t>
-  </si>
-  <si>
-    <t>2civnKhFGFBFSGFGjOBjfU</t>
-  </si>
-  <si>
-    <t>3vHswuqTNO0hIiW6am0tKB</t>
-  </si>
-  <si>
-    <t>6hO69Farc3S1Hu9M0h5qrE</t>
-  </si>
-  <si>
-    <t>6K0QiCBMBMTVjTReVdusbp</t>
-  </si>
-  <si>
-    <t>5N7IYups0hGrlVcvj0bmHG</t>
-  </si>
-  <si>
-    <t>5H9PjygodoXzyX45g7Pm6n</t>
-  </si>
-  <si>
-    <t>6cgH0eZr4yUwlmuf299iim</t>
-  </si>
-  <si>
-    <t>spotify:track:11C4y2Yz1XbHmaQwO06s9f</t>
-  </si>
-  <si>
-    <t>spotify:track:7zhmazCm877yScXIQfeMh0</t>
-  </si>
-  <si>
-    <t>spotify:track:5fSpVOafE3DSUs0xztUf6k</t>
-  </si>
-  <si>
-    <t>spotify:track:5oKu1Ey6XNDXv5B3LG7kn9</t>
-  </si>
-  <si>
-    <t>spotify:track:6jWlNmq2YtAsRXBTyFS1S3</t>
-  </si>
-  <si>
-    <t>spotify:track:7MFWYTlrC81IGpb0Jwgdu7</t>
-  </si>
-  <si>
-    <t>spotify:track:3iB8eciGU9vZkaDYkz7Ir9</t>
-  </si>
-  <si>
-    <t>spotify:track:2Mz7HwloqFNdA6iZeZk5PJ</t>
-  </si>
-  <si>
-    <t>spotify:track:4OjJAGDDZTLlTNeOMBl7UM</t>
-  </si>
-  <si>
-    <t>spotify:track:3zZhUs6p17cb84VDaSHZ2X</t>
-  </si>
-  <si>
-    <t>spotify:track:3XIEWK1V9n25PS9Vb6axj5</t>
-  </si>
-  <si>
-    <t>spotify:track:7rIovIsXE6kMn629b7kDig</t>
-  </si>
-  <si>
-    <t>spotify:track:2mT0YKSgM8ie4Irf0gkuPA</t>
-  </si>
-  <si>
-    <t>spotify:track:0C9qil6cXEEJ8AzrMUEHv6</t>
-  </si>
-  <si>
-    <t>spotify:track:3Q76RJ43ot3GrOSW8tE2MQ</t>
-  </si>
-  <si>
-    <t>spotify:track:4iNPp0BZ4lBu7bipdWLcWk</t>
-  </si>
-  <si>
-    <t>spotify:track:3xbws1uOAaxeTPEviKWONY</t>
-  </si>
-  <si>
-    <t>spotify:track:0Phj7ixjnkGM8aahaEgrTC</t>
-  </si>
-  <si>
-    <t>spotify:track:0hFK73Z6tXs6S5YFPL72eW</t>
-  </si>
-  <si>
-    <t>spotify:track:3Z2tPWiNiIpg8UMMoowHIk</t>
-  </si>
-  <si>
-    <t>spotify:track:2u5I0S8cTkP9jYnLItZIGA</t>
-  </si>
-  <si>
-    <t>spotify:track:0G2DnO1M5FUDgWp9xD0ifR</t>
-  </si>
-  <si>
-    <t>spotify:track:19q7EMl3ZeHQ6SBihkWptc</t>
-  </si>
-  <si>
-    <t>spotify:track:49l4Fv41jWi2TGCsPmseKY</t>
-  </si>
-  <si>
-    <t>spotify:track:7GbqE3MlkKosIaCvf50JRK</t>
-  </si>
-  <si>
-    <t>spotify:track:4UDmDIqJIbrW0hMBQMFOsM</t>
-  </si>
-  <si>
-    <t>spotify:track:46eu3SBuFCXWsPT39Yg3tJ</t>
-  </si>
-  <si>
-    <t>spotify:track:4VWbPQUPvLes814r6T11Jz</t>
-  </si>
-  <si>
-    <t>spotify:track:3mDe07njc5shNJSjzkSMUa</t>
-  </si>
-  <si>
-    <t>spotify:track:1kAl7tpw3oKnK1seYQ9PIh</t>
-  </si>
-  <si>
-    <t>spotify:track:1Ek1OEhcEw9gRr5fxVizhk</t>
-  </si>
-  <si>
-    <t>spotify:track:20RHWjtCLr7ODGQEItdZXg</t>
-  </si>
-  <si>
-    <t>spotify:track:5klPZRehMLpiKUchPAzKyR</t>
-  </si>
-  <si>
-    <t>spotify:track:3uBlI0TvJ1QGOPesQ7yL6W</t>
-  </si>
-  <si>
-    <t>spotify:track:6YJrz5WxB02vFvZZoZFK9t</t>
-  </si>
-  <si>
-    <t>spotify:track:0iCHWjdI0saDg2BZq36OvD</t>
-  </si>
-  <si>
-    <t>spotify:track:0a8sR4JpMM4mcFNItKOjRg</t>
-  </si>
-  <si>
-    <t>spotify:track:0DDNj4fVw7JNrXXuVfqI0l</t>
-  </si>
-  <si>
-    <t>spotify:track:3tYSZZjpt5lth5lZbWdQVR</t>
-  </si>
-  <si>
-    <t>spotify:track:2TxCwUlqaOH3TIyJqGgR91</t>
-  </si>
-  <si>
-    <t>spotify:track:0GjEhVFGZW8afUYGChu3Rr</t>
-  </si>
-  <si>
-    <t>spotify:track:4MpqiN2moRQR2t0DO43MZH</t>
-  </si>
-  <si>
-    <t>spotify:track:1T5Q8MLqpSoiuQDvZ2ygkg</t>
-  </si>
-  <si>
-    <t>spotify:track:0NdMo8e9qtwhMsmrkUURHd</t>
-  </si>
-  <si>
-    <t>spotify:track:1eldTykrnkEBLX41bk5eMw</t>
-  </si>
-  <si>
-    <t>spotify:track:5bOWPM362XpMa8zn6UR9te</t>
-  </si>
-  <si>
-    <t>spotify:track:30D9x5LFgL2o9xidjX2wtE</t>
-  </si>
-  <si>
-    <t>spotify:track:2aZzYnRRP6RNa6VVW1sNCl</t>
-  </si>
-  <si>
-    <t>spotify:track:4UMPPga9jtAqvZSKjxeJ29</t>
-  </si>
-  <si>
-    <t>spotify:track:3TqoXM2sHgEFXgd1ywgyZf</t>
-  </si>
-  <si>
-    <t>spotify:track:73rdSdXmVo02WBgUMIvh9L</t>
-  </si>
-  <si>
-    <t>spotify:track:3cXteS7JTe3VtA8OIoWwAb</t>
-  </si>
-  <si>
-    <t>spotify:track:2civnKhFGFBFSGFGjOBjfU</t>
-  </si>
-  <si>
-    <t>spotify:track:3vHswuqTNO0hIiW6am0tKB</t>
-  </si>
-  <si>
-    <t>spotify:track:6hO69Farc3S1Hu9M0h5qrE</t>
-  </si>
-  <si>
-    <t>spotify:track:6K0QiCBMBMTVjTReVdusbp</t>
-  </si>
-  <si>
-    <t>spotify:track:5N7IYups0hGrlVcvj0bmHG</t>
-  </si>
-  <si>
-    <t>spotify:track:5H9PjygodoXzyX45g7Pm6n</t>
-  </si>
-  <si>
-    <t>spotify:track:6cgH0eZr4yUwlmuf299iim</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/11C4y2Yz1XbHmaQwO06s9f</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/7zhmazCm877yScXIQfeMh0</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5fSpVOafE3DSUs0xztUf6k</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5oKu1Ey6XNDXv5B3LG7kn9</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/6jWlNmq2YtAsRXBTyFS1S3</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/7MFWYTlrC81IGpb0Jwgdu7</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3iB8eciGU9vZkaDYkz7Ir9</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/2Mz7HwloqFNdA6iZeZk5PJ</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4OjJAGDDZTLlTNeOMBl7UM</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3zZhUs6p17cb84VDaSHZ2X</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3XIEWK1V9n25PS9Vb6axj5</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/7rIovIsXE6kMn629b7kDig</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/2mT0YKSgM8ie4Irf0gkuPA</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0C9qil6cXEEJ8AzrMUEHv6</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3Q76RJ43ot3GrOSW8tE2MQ</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4iNPp0BZ4lBu7bipdWLcWk</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3xbws1uOAaxeTPEviKWONY</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0Phj7ixjnkGM8aahaEgrTC</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0hFK73Z6tXs6S5YFPL72eW</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3Z2tPWiNiIpg8UMMoowHIk</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/2u5I0S8cTkP9jYnLItZIGA</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0G2DnO1M5FUDgWp9xD0ifR</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/19q7EMl3ZeHQ6SBihkWptc</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/49l4Fv41jWi2TGCsPmseKY</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/7GbqE3MlkKosIaCvf50JRK</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4UDmDIqJIbrW0hMBQMFOsM</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/46eu3SBuFCXWsPT39Yg3tJ</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4VWbPQUPvLes814r6T11Jz</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3mDe07njc5shNJSjzkSMUa</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/1kAl7tpw3oKnK1seYQ9PIh</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/1Ek1OEhcEw9gRr5fxVizhk</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/20RHWjtCLr7ODGQEItdZXg</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5klPZRehMLpiKUchPAzKyR</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3uBlI0TvJ1QGOPesQ7yL6W</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/6YJrz5WxB02vFvZZoZFK9t</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0iCHWjdI0saDg2BZq36OvD</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0a8sR4JpMM4mcFNItKOjRg</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0DDNj4fVw7JNrXXuVfqI0l</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3tYSZZjpt5lth5lZbWdQVR</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/2TxCwUlqaOH3TIyJqGgR91</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0GjEhVFGZW8afUYGChu3Rr</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4MpqiN2moRQR2t0DO43MZH</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/1T5Q8MLqpSoiuQDvZ2ygkg</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0NdMo8e9qtwhMsmrkUURHd</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/1eldTykrnkEBLX41bk5eMw</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5bOWPM362XpMa8zn6UR9te</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/30D9x5LFgL2o9xidjX2wtE</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/2aZzYnRRP6RNa6VVW1sNCl</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4UMPPga9jtAqvZSKjxeJ29</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3TqoXM2sHgEFXgd1ywgyZf</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/73rdSdXmVo02WBgUMIvh9L</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3cXteS7JTe3VtA8OIoWwAb</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/2civnKhFGFBFSGFGjOBjfU</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3vHswuqTNO0hIiW6am0tKB</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/6hO69Farc3S1Hu9M0h5qrE</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/6K0QiCBMBMTVjTReVdusbp</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5N7IYups0hGrlVcvj0bmHG</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5H9PjygodoXzyX45g7Pm6n</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/6cgH0eZr4yUwlmuf299iim</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/11C4y2Yz1XbHmaQwO06s9f</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/7zhmazCm877yScXIQfeMh0</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5fSpVOafE3DSUs0xztUf6k</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5oKu1Ey6XNDXv5B3LG7kn9</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/6jWlNmq2YtAsRXBTyFS1S3</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/7MFWYTlrC81IGpb0Jwgdu7</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3iB8eciGU9vZkaDYkz7Ir9</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/2Mz7HwloqFNdA6iZeZk5PJ</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4OjJAGDDZTLlTNeOMBl7UM</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3zZhUs6p17cb84VDaSHZ2X</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3XIEWK1V9n25PS9Vb6axj5</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/7rIovIsXE6kMn629b7kDig</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/2mT0YKSgM8ie4Irf0gkuPA</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0C9qil6cXEEJ8AzrMUEHv6</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3Q76RJ43ot3GrOSW8tE2MQ</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4iNPp0BZ4lBu7bipdWLcWk</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3xbws1uOAaxeTPEviKWONY</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0Phj7ixjnkGM8aahaEgrTC</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0hFK73Z6tXs6S5YFPL72eW</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3Z2tPWiNiIpg8UMMoowHIk</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/2u5I0S8cTkP9jYnLItZIGA</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0G2DnO1M5FUDgWp9xD0ifR</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/19q7EMl3ZeHQ6SBihkWptc</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/49l4Fv41jWi2TGCsPmseKY</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/7GbqE3MlkKosIaCvf50JRK</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4UDmDIqJIbrW0hMBQMFOsM</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/46eu3SBuFCXWsPT39Yg3tJ</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4VWbPQUPvLes814r6T11Jz</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3mDe07njc5shNJSjzkSMUa</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/1kAl7tpw3oKnK1seYQ9PIh</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/1Ek1OEhcEw9gRr5fxVizhk</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/20RHWjtCLr7ODGQEItdZXg</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5klPZRehMLpiKUchPAzKyR</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3uBlI0TvJ1QGOPesQ7yL6W</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/6YJrz5WxB02vFvZZoZFK9t</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0iCHWjdI0saDg2BZq36OvD</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0a8sR4JpMM4mcFNItKOjRg</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0DDNj4fVw7JNrXXuVfqI0l</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3tYSZZjpt5lth5lZbWdQVR</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/2TxCwUlqaOH3TIyJqGgR91</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0GjEhVFGZW8afUYGChu3Rr</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4MpqiN2moRQR2t0DO43MZH</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/1T5Q8MLqpSoiuQDvZ2ygkg</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0NdMo8e9qtwhMsmrkUURHd</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/1eldTykrnkEBLX41bk5eMw</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5bOWPM362XpMa8zn6UR9te</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/30D9x5LFgL2o9xidjX2wtE</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/2aZzYnRRP6RNa6VVW1sNCl</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4UMPPga9jtAqvZSKjxeJ29</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3TqoXM2sHgEFXgd1ywgyZf</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/73rdSdXmVo02WBgUMIvh9L</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3cXteS7JTe3VtA8OIoWwAb</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/2civnKhFGFBFSGFGjOBjfU</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3vHswuqTNO0hIiW6am0tKB</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/6hO69Farc3S1Hu9M0h5qrE</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/6K0QiCBMBMTVjTReVdusbp</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5N7IYups0hGrlVcvj0bmHG</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5H9PjygodoXzyX45g7Pm6n</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/6cgH0eZr4yUwlmuf299iim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1262,13 +542,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1303,33 +576,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1367,7 +642,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1401,6 +676,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1435,9 +711,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1610,14 +887,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,52 +960,37 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>28041</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
-        <v>28041</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
       </c>
       <c r="E2">
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H2">
         <v>88</v>
       </c>
       <c r="I2">
-        <v>0.671</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="J2">
-        <v>0.845</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -1738,176 +1002,146 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="O2">
-        <v>0.0207</v>
+        <v>2.07E-2</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="R2">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="S2">
         <v>110.056</v>
       </c>
-      <c r="T2" t="s">
-        <v>172</v>
-      </c>
-      <c r="U2" t="s">
-        <v>173</v>
-      </c>
-      <c r="V2" t="s">
-        <v>232</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y2">
+      <c r="T2">
         <v>176579</v>
       </c>
-      <c r="Z2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="U2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>28041</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>45</v>
       </c>
       <c r="I3">
-        <v>0.708</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="J3">
-        <v>0.9320000000000001</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3">
-        <v>-5.913</v>
+        <v>-5.9130000000000003</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0342</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="O3">
-        <v>0.0174</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="P3">
-        <v>2.46E-06</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="Q3">
-        <v>0.08309999999999999</v>
+        <v>8.3099999999999993E-2</v>
       </c>
       <c r="R3">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="S3">
-        <v>121.987</v>
-      </c>
-      <c r="T3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U3" t="s">
-        <v>174</v>
-      </c>
-      <c r="V3" t="s">
-        <v>233</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y3">
+        <v>121.98699999999999</v>
+      </c>
+      <c r="T3">
         <v>252668</v>
       </c>
-      <c r="Z3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="U3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>28041</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H4">
         <v>23</v>
       </c>
       <c r="I4">
-        <v>0.791</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="J4">
-        <v>0.797</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="K4">
         <v>9</v>
       </c>
       <c r="L4">
-        <v>-5.534</v>
+        <v>-5.5339999999999998</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0443</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="O4">
         <v>0.2</v>
       </c>
       <c r="P4">
-        <v>0.000192</v>
+        <v>1.92E-4</v>
       </c>
       <c r="Q4">
-        <v>0.082</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="R4">
         <v>0.96</v>
@@ -1915,138 +1149,108 @@
       <c r="S4">
         <v>118.592</v>
       </c>
-      <c r="T4" t="s">
-        <v>172</v>
-      </c>
-      <c r="U4" t="s">
-        <v>175</v>
-      </c>
-      <c r="V4" t="s">
-        <v>234</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y4">
+      <c r="T4">
         <v>204600</v>
       </c>
-      <c r="Z4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="U4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>28041</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5">
-        <v>28041</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
       </c>
       <c r="E5">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H5">
         <v>29</v>
       </c>
       <c r="I5">
-        <v>0.711</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="J5">
-        <v>0.868</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>-7.146</v>
+        <v>-7.1459999999999999</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>0.0495</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="O5">
-        <v>0.08500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="P5">
-        <v>1.2E-06</v>
+        <v>1.1999999999999999E-6</v>
       </c>
       <c r="Q5">
-        <v>0.06370000000000001</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="R5">
-        <v>0.735</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="S5">
         <v>102.916</v>
       </c>
-      <c r="T5" t="s">
-        <v>172</v>
-      </c>
-      <c r="U5" t="s">
-        <v>176</v>
-      </c>
-      <c r="V5" t="s">
-        <v>235</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y5">
+      <c r="T5">
         <v>242414</v>
       </c>
-      <c r="Z5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="U5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>28041</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
       </c>
       <c r="E6">
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H6">
         <v>54</v>
       </c>
       <c r="I6">
-        <v>0.709</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="J6">
-        <v>0.862</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -2058,66 +1262,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.07389999999999999</v>
+        <v>7.3899999999999993E-2</v>
       </c>
       <c r="O6">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="P6">
-        <v>0.000198</v>
+        <v>1.9799999999999999E-4</v>
       </c>
       <c r="Q6">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="R6">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="S6">
         <v>123.008</v>
       </c>
-      <c r="T6" t="s">
-        <v>172</v>
-      </c>
-      <c r="U6" t="s">
-        <v>177</v>
-      </c>
-      <c r="V6" t="s">
-        <v>236</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y6">
+      <c r="T6">
         <v>199653</v>
       </c>
-      <c r="Z6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="U6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>28041</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -2132,158 +1321,128 @@
         <v>9</v>
       </c>
       <c r="L7">
-        <v>-6.969</v>
+        <v>-6.9690000000000003</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.0315</v>
+        <v>3.15E-2</v>
       </c>
       <c r="O7">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.0997</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="R7">
         <v>0.876</v>
       </c>
       <c r="S7">
-        <v>131.394</v>
-      </c>
-      <c r="T7" t="s">
-        <v>172</v>
-      </c>
-      <c r="U7" t="s">
-        <v>178</v>
-      </c>
-      <c r="V7" t="s">
-        <v>237</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y7">
+        <v>131.39400000000001</v>
+      </c>
+      <c r="T7">
         <v>246827</v>
       </c>
-      <c r="Z7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="U7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>28041</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H8">
         <v>67</v>
       </c>
       <c r="I8">
-        <v>0.671</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="J8">
-        <v>0.8169999999999999</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="K8">
         <v>6</v>
       </c>
       <c r="L8">
-        <v>-12.107</v>
+        <v>-12.106999999999999</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.0569</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="O8">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="P8">
-        <v>0.000235</v>
+        <v>2.3499999999999999E-4</v>
       </c>
       <c r="Q8">
-        <v>0.07149999999999999</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="R8">
-        <v>0.9379999999999999</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="S8">
-        <v>119.549</v>
-      </c>
-      <c r="T8" t="s">
-        <v>172</v>
-      </c>
-      <c r="U8" t="s">
-        <v>179</v>
-      </c>
-      <c r="V8" t="s">
-        <v>238</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y8">
+        <v>119.54900000000001</v>
+      </c>
+      <c r="T8">
         <v>203333</v>
       </c>
-      <c r="Z8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="U8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>28041</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H9">
         <v>67</v>
       </c>
       <c r="I9">
-        <v>0.716</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="J9">
         <v>0.89</v>
@@ -2292,72 +1451,57 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>-12.562</v>
+        <v>-12.561999999999999</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>0.0563</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="O9">
-        <v>0.677</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="P9">
-        <v>0.00371</v>
+        <v>3.7100000000000002E-3</v>
       </c>
       <c r="Q9">
-        <v>0.208</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="R9">
-        <v>0.842</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="S9">
         <v>108.245</v>
       </c>
-      <c r="T9" t="s">
-        <v>172</v>
-      </c>
-      <c r="U9" t="s">
-        <v>180</v>
-      </c>
-      <c r="V9" t="s">
-        <v>239</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y9">
+      <c r="T9">
         <v>204240</v>
       </c>
-      <c r="Z9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="U9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>28041</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H10">
         <v>67</v>
@@ -2366,7 +1510,7 @@
         <v>0.627</v>
       </c>
       <c r="J10">
-        <v>0.801</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -2378,72 +1522,57 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0.0487</v>
+        <v>4.87E-2</v>
       </c>
       <c r="O10">
-        <v>0.609</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="P10">
-        <v>7.32E-06</v>
+        <v>7.3200000000000002E-6</v>
       </c>
       <c r="Q10">
         <v>0.373</v>
       </c>
       <c r="R10">
-        <v>0.926</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="S10">
         <v>116.102</v>
       </c>
-      <c r="T10" t="s">
-        <v>172</v>
-      </c>
-      <c r="U10" t="s">
-        <v>181</v>
-      </c>
-      <c r="V10" t="s">
-        <v>240</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y10">
+      <c r="T10">
         <v>218520</v>
       </c>
-      <c r="Z10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="U10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>28041</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H11">
         <v>39</v>
       </c>
       <c r="I11">
-        <v>0.734</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="J11">
         <v>0.93</v>
@@ -2452,152 +1581,122 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>-5.648</v>
+        <v>-5.6479999999999997</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.0663</v>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="O11">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="R11">
-        <v>0.859</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="S11">
         <v>120.004</v>
       </c>
-      <c r="T11" t="s">
-        <v>172</v>
-      </c>
-      <c r="U11" t="s">
-        <v>182</v>
-      </c>
-      <c r="V11" t="s">
-        <v>241</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y11">
+      <c r="T11">
         <v>220667</v>
       </c>
-      <c r="Z11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="U11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>28041</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H12">
         <v>58</v>
       </c>
       <c r="I12">
-        <v>0.704</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="J12">
-        <v>0.868</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>-5.808</v>
+        <v>-5.8079999999999998</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0.0315</v>
+        <v>3.15E-2</v>
       </c>
       <c r="O12">
-        <v>0.0834</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="R12">
-        <v>0.8080000000000001</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="S12">
-        <v>131.468</v>
-      </c>
-      <c r="T12" t="s">
-        <v>172</v>
-      </c>
-      <c r="U12" t="s">
-        <v>183</v>
-      </c>
-      <c r="V12" t="s">
-        <v>242</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y12">
+        <v>131.46799999999999</v>
+      </c>
+      <c r="T12">
         <v>188133</v>
       </c>
-      <c r="Z12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="U12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>28041</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H13">
         <v>65</v>
@@ -2606,87 +1705,72 @@
         <v>0.77</v>
       </c>
       <c r="J13">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="K13">
         <v>9</v>
       </c>
       <c r="L13">
-        <v>-9.571</v>
+        <v>-9.5709999999999997</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.0495</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="O13">
-        <v>0.0227</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="P13">
-        <v>0.00262</v>
+        <v>2.6199999999999999E-3</v>
       </c>
       <c r="Q13">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="R13">
-        <v>0.802</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="S13">
         <v>116.935</v>
       </c>
-      <c r="T13" t="s">
-        <v>172</v>
-      </c>
-      <c r="U13" t="s">
-        <v>184</v>
-      </c>
-      <c r="V13" t="s">
-        <v>243</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y13">
+      <c r="T13">
         <v>296107</v>
       </c>
-      <c r="Z13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="U13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>28041</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H14">
         <v>63</v>
       </c>
       <c r="I14">
-        <v>0.554</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="J14">
-        <v>0.783</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -2701,7 +1785,7 @@
         <v>0.109</v>
       </c>
       <c r="O14">
-        <v>0.491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2715,49 +1799,34 @@
       <c r="S14">
         <v>125.959</v>
       </c>
-      <c r="T14" t="s">
-        <v>172</v>
-      </c>
-      <c r="U14" t="s">
-        <v>185</v>
-      </c>
-      <c r="V14" t="s">
-        <v>244</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y14">
+      <c r="T14">
         <v>261093</v>
       </c>
-      <c r="Z14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="U14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>28041</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H15">
         <v>58</v>
@@ -2772,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-6.604</v>
+        <v>-6.6040000000000001</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2781,143 +1850,113 @@
         <v>0.879</v>
       </c>
       <c r="O15">
-        <v>0.492</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="R15">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="S15">
         <v>75.128</v>
       </c>
-      <c r="T15" t="s">
-        <v>172</v>
-      </c>
-      <c r="U15" t="s">
-        <v>186</v>
-      </c>
-      <c r="V15" t="s">
-        <v>245</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y15">
+      <c r="T15">
         <v>360120</v>
       </c>
-      <c r="Z15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="U15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>28041</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H16">
         <v>63</v>
       </c>
       <c r="I16">
-        <v>0.577</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="J16">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="K16">
         <v>8</v>
       </c>
       <c r="L16">
-        <v>-5.473</v>
+        <v>-5.4729999999999999</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="O16">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.137</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="R16">
-        <v>0.631</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="S16">
         <v>140.024</v>
       </c>
-      <c r="T16" t="s">
-        <v>172</v>
-      </c>
-      <c r="U16" t="s">
-        <v>187</v>
-      </c>
-      <c r="V16" t="s">
-        <v>246</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y16">
+      <c r="T16">
         <v>288093</v>
       </c>
-      <c r="Z16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="U16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>28041</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H17">
         <v>63</v>
@@ -2926,19 +1965,19 @@
         <v>0.63</v>
       </c>
       <c r="J17">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="K17">
         <v>10</v>
       </c>
       <c r="L17">
-        <v>-9.162000000000001</v>
+        <v>-9.1620000000000008</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0.0334</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="O17">
         <v>0.875</v>
@@ -2953,57 +1992,42 @@
         <v>0.246</v>
       </c>
       <c r="S17">
-        <v>142.046</v>
-      </c>
-      <c r="T17" t="s">
-        <v>172</v>
-      </c>
-      <c r="U17" t="s">
-        <v>188</v>
-      </c>
-      <c r="V17" t="s">
-        <v>247</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y17">
+        <v>142.04599999999999</v>
+      </c>
+      <c r="T17">
         <v>223800</v>
       </c>
-      <c r="Z17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="U17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>28041</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H18">
         <v>63</v>
       </c>
       <c r="I18">
-        <v>0.597</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="J18">
         <v>0.71</v>
@@ -3012,161 +2036,131 @@
         <v>5</v>
       </c>
       <c r="L18">
-        <v>-5.613</v>
+        <v>-5.6130000000000004</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.131</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="O18">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.08019999999999999</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="R18">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="S18">
         <v>103.87</v>
       </c>
-      <c r="T18" t="s">
-        <v>172</v>
-      </c>
-      <c r="U18" t="s">
-        <v>189</v>
-      </c>
-      <c r="V18" t="s">
-        <v>248</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y18">
+      <c r="T18">
         <v>204160</v>
       </c>
-      <c r="Z18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="U18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>28041</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H19">
         <v>63</v>
       </c>
       <c r="I19">
-        <v>0.609</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="J19">
-        <v>0.663</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>-5.995</v>
+        <v>-5.9950000000000001</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.0321</v>
+        <v>3.2099999999999997E-2</v>
       </c>
       <c r="O19">
-        <v>0.0555</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="P19">
-        <v>2.9E-06</v>
+        <v>2.9000000000000002E-6</v>
       </c>
       <c r="Q19">
-        <v>0.149</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="R19">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="S19">
-        <v>149.896</v>
-      </c>
-      <c r="T19" t="s">
-        <v>172</v>
-      </c>
-      <c r="U19" t="s">
-        <v>190</v>
-      </c>
-      <c r="V19" t="s">
-        <v>249</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y19">
+        <v>149.89599999999999</v>
+      </c>
+      <c r="T19">
         <v>196726</v>
       </c>
-      <c r="Z19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="U19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>28041</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H20">
         <v>63</v>
       </c>
       <c r="I20">
-        <v>0.574</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="J20">
-        <v>0.641</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -3178,87 +2172,72 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.0399</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="O20">
-        <v>0.08019999999999999</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.131</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="R20">
         <v>0.316</v>
       </c>
       <c r="S20">
-        <v>94.027</v>
-      </c>
-      <c r="T20" t="s">
-        <v>172</v>
-      </c>
-      <c r="U20" t="s">
-        <v>191</v>
-      </c>
-      <c r="V20" t="s">
-        <v>250</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y20">
+        <v>94.027000000000001</v>
+      </c>
+      <c r="T20">
         <v>203693</v>
       </c>
-      <c r="Z20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="U20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>28041</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H21">
         <v>51</v>
       </c>
       <c r="I21">
-        <v>0.528</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="J21">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21">
-        <v>-15.255</v>
+        <v>-15.255000000000001</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21">
-        <v>0.0435</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="O21">
         <v>0.189</v>
@@ -3267,57 +2246,42 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.0745</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="R21">
-        <v>0.292</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="S21">
         <v>72.58</v>
       </c>
-      <c r="T21" t="s">
-        <v>172</v>
-      </c>
-      <c r="U21" t="s">
-        <v>192</v>
-      </c>
-      <c r="V21" t="s">
-        <v>251</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y21">
+      <c r="T21">
         <v>427333</v>
       </c>
-      <c r="Z21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="U21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>28041</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H22">
         <v>31</v>
@@ -3326,87 +2290,72 @@
         <v>0.59</v>
       </c>
       <c r="J22">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="K22">
         <v>7</v>
       </c>
       <c r="L22">
-        <v>-3.664</v>
+        <v>-3.6640000000000001</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0.0774</v>
+        <v>7.7399999999999997E-2</v>
       </c>
       <c r="O22">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.0767</v>
+        <v>7.6700000000000004E-2</v>
       </c>
       <c r="R22">
-        <v>0.744</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="S22">
-        <v>130.927</v>
-      </c>
-      <c r="T22" t="s">
-        <v>172</v>
-      </c>
-      <c r="U22" t="s">
-        <v>193</v>
-      </c>
-      <c r="V22" t="s">
-        <v>252</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y22">
+        <v>130.92699999999999</v>
+      </c>
+      <c r="T22">
         <v>227453</v>
       </c>
-      <c r="Z22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="U22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>28041</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H23">
         <v>31</v>
       </c>
       <c r="I23">
-        <v>0.632</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="J23">
-        <v>0.9360000000000001</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -3418,152 +2367,122 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.06569999999999999</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="O23">
         <v>0.219</v>
       </c>
       <c r="P23">
-        <v>1.96E-06</v>
+        <v>1.9599999999999999E-6</v>
       </c>
       <c r="Q23">
-        <v>0.175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="R23">
-        <v>0.533</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="S23">
         <v>112.998</v>
       </c>
-      <c r="T23" t="s">
-        <v>172</v>
-      </c>
-      <c r="U23" t="s">
-        <v>194</v>
-      </c>
-      <c r="V23" t="s">
-        <v>253</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y23">
+      <c r="T23">
         <v>222867</v>
       </c>
-      <c r="Z23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="U23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>28041</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H24">
         <v>31</v>
       </c>
       <c r="I24">
-        <v>0.653</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="J24">
-        <v>0.859</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>-5.268</v>
+        <v>-5.2679999999999998</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>0.0267</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="O24">
-        <v>0.0949</v>
+        <v>9.4899999999999998E-2</v>
       </c>
       <c r="P24">
-        <v>0.0031</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="Q24">
-        <v>0.0892</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="R24">
-        <v>0.9340000000000001</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="S24">
         <v>125.922</v>
       </c>
-      <c r="T24" t="s">
-        <v>172</v>
-      </c>
-      <c r="U24" t="s">
-        <v>195</v>
-      </c>
-      <c r="V24" t="s">
-        <v>254</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y24">
+      <c r="T24">
         <v>218040</v>
       </c>
-      <c r="Z24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="U24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>28041</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H25">
         <v>46</v>
       </c>
       <c r="I25">
-        <v>0.653</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="J25">
         <v>0.877</v>
@@ -3572,72 +2491,57 @@
         <v>4</v>
       </c>
       <c r="L25">
-        <v>-5.336</v>
+        <v>-5.3360000000000003</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>0.0359</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="O25">
-        <v>0.061</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="P25">
-        <v>0.0133</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="Q25">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="R25">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="S25">
-        <v>111.025</v>
-      </c>
-      <c r="T25" t="s">
-        <v>172</v>
-      </c>
-      <c r="U25" t="s">
-        <v>196</v>
-      </c>
-      <c r="V25" t="s">
-        <v>255</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y25">
+        <v>111.02500000000001</v>
+      </c>
+      <c r="T25">
         <v>282400</v>
       </c>
-      <c r="Z25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="U25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>28041</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H26">
         <v>79</v>
@@ -3646,158 +2550,128 @@
         <v>0.76</v>
       </c>
       <c r="J26">
-        <v>0.801</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="K26">
         <v>5</v>
       </c>
       <c r="L26">
-        <v>-3.769</v>
+        <v>-3.7690000000000001</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <v>0.0534</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="O26">
-        <v>0.0144</v>
+        <v>1.44E-2</v>
       </c>
       <c r="P26">
-        <v>1.49E-05</v>
+        <v>1.49E-5</v>
       </c>
       <c r="Q26">
-        <v>0.665</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="R26">
-        <v>0.653</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="S26">
         <v>109.919</v>
       </c>
-      <c r="T26" t="s">
-        <v>172</v>
-      </c>
-      <c r="U26" t="s">
-        <v>197</v>
-      </c>
-      <c r="V26" t="s">
-        <v>256</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y26">
+      <c r="T26">
         <v>264893</v>
       </c>
-      <c r="Z26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="U26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>28041</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H27">
         <v>79</v>
       </c>
       <c r="I27">
-        <v>0.707</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="J27">
-        <v>0.535</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="K27">
         <v>10</v>
       </c>
       <c r="L27">
-        <v>-19.793</v>
+        <v>-19.792999999999999</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0.0436</v>
+        <v>4.36E-2</v>
       </c>
       <c r="O27">
         <v>0.113</v>
       </c>
       <c r="P27">
-        <v>0.00615</v>
+        <v>6.1500000000000001E-3</v>
       </c>
       <c r="Q27">
-        <v>0.08840000000000001</v>
+        <v>8.8400000000000006E-2</v>
       </c>
       <c r="R27">
-        <v>0.641</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="S27">
-        <v>103.644</v>
-      </c>
-      <c r="T27" t="s">
-        <v>172</v>
-      </c>
-      <c r="U27" t="s">
-        <v>198</v>
-      </c>
-      <c r="V27" t="s">
-        <v>257</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y27">
+        <v>103.64400000000001</v>
+      </c>
+      <c r="T27">
         <v>92867</v>
       </c>
-      <c r="Z27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="U27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>28041</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H28">
         <v>86</v>
@@ -3806,7 +2680,7 @@
         <v>0.878</v>
       </c>
       <c r="J28">
-        <v>0.821</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="K28">
         <v>11</v>
@@ -3818,90 +2692,75 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>0.089</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="O28">
         <v>0.126</v>
       </c>
       <c r="P28">
-        <v>0.0461</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="Q28">
         <v>0.183</v>
       </c>
       <c r="R28">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="S28">
         <v>118.881</v>
       </c>
-      <c r="T28" t="s">
-        <v>172</v>
-      </c>
-      <c r="U28" t="s">
-        <v>199</v>
-      </c>
-      <c r="V28" t="s">
-        <v>258</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y28">
+      <c r="T28">
         <v>365467</v>
       </c>
-      <c r="Z28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="U28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>28041</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H29">
         <v>62</v>
       </c>
       <c r="I29">
-        <v>0.783</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="J29">
-        <v>0.454</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="K29">
         <v>4</v>
       </c>
       <c r="L29">
-        <v>-8.250999999999999</v>
+        <v>-8.2509999999999994</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>0.0489</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="O29">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3910,134 +2769,104 @@
         <v>0.155</v>
       </c>
       <c r="R29">
-        <v>0.711</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="S29">
         <v>111.577</v>
       </c>
-      <c r="T29" t="s">
-        <v>172</v>
-      </c>
-      <c r="U29" t="s">
-        <v>200</v>
-      </c>
-      <c r="V29" t="s">
-        <v>259</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y29">
+      <c r="T29">
         <v>157627</v>
       </c>
-      <c r="Z29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="U29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>28041</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E30">
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H30">
         <v>55</v>
       </c>
       <c r="I30">
-        <v>0.777</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="J30">
-        <v>0.767</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="K30">
         <v>8</v>
       </c>
       <c r="L30">
-        <v>-4.145</v>
+        <v>-4.1449999999999996</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="O30">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.0463</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="R30">
-        <v>0.858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="S30">
         <v>100.009</v>
       </c>
-      <c r="T30" t="s">
-        <v>172</v>
-      </c>
-      <c r="U30" t="s">
-        <v>201</v>
-      </c>
-      <c r="V30" t="s">
-        <v>260</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y30">
+      <c r="T30">
         <v>197040</v>
       </c>
-      <c r="Z30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="U30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>28041</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H31">
         <v>55</v>
@@ -4052,78 +2881,63 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-8.813000000000001</v>
+        <v>-8.8130000000000006</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0.0835</v>
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="O31">
-        <v>0.722</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="P31">
-        <v>1.21E-06</v>
+        <v>1.2100000000000001E-6</v>
       </c>
       <c r="Q31">
-        <v>0.202</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="R31">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="S31">
         <v>171.029</v>
       </c>
-      <c r="T31" t="s">
-        <v>172</v>
-      </c>
-      <c r="U31" t="s">
-        <v>202</v>
-      </c>
-      <c r="V31" t="s">
-        <v>261</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y31">
+      <c r="T31">
         <v>283547</v>
       </c>
-      <c r="Z31">
+      <c r="U31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>28041</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H32">
         <v>55</v>
       </c>
       <c r="I32">
-        <v>0.513</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="J32">
         <v>0.248</v>
@@ -4138,16 +2952,16 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="O32">
-        <v>0.886</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="P32">
-        <v>0.0186</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="Q32">
-        <v>0.0862</v>
+        <v>8.6199999999999999E-2</v>
       </c>
       <c r="R32">
         <v>0.222</v>
@@ -4155,129 +2969,99 @@
       <c r="S32">
         <v>127.747</v>
       </c>
-      <c r="T32" t="s">
-        <v>172</v>
-      </c>
-      <c r="U32" t="s">
-        <v>203</v>
-      </c>
-      <c r="V32" t="s">
-        <v>262</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y32">
+      <c r="T32">
         <v>219227</v>
       </c>
-      <c r="Z32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="U32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>28041</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E33">
         <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H33">
         <v>55</v>
       </c>
       <c r="I33">
-        <v>0.643</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="J33">
-        <v>0.766</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="K33">
         <v>9</v>
       </c>
       <c r="L33">
-        <v>-7.385</v>
+        <v>-7.3849999999999998</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>0.0317</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="O33">
-        <v>0.345</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="P33">
-        <v>1.45E-06</v>
+        <v>1.4500000000000001E-6</v>
       </c>
       <c r="Q33">
         <v>0.126</v>
       </c>
       <c r="R33">
-        <v>0.603</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="S33">
-        <v>130.588</v>
-      </c>
-      <c r="T33" t="s">
-        <v>172</v>
-      </c>
-      <c r="U33" t="s">
-        <v>204</v>
-      </c>
-      <c r="V33" t="s">
-        <v>263</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y33">
+        <v>130.58799999999999</v>
+      </c>
+      <c r="T33">
         <v>268747</v>
       </c>
-      <c r="Z33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="U33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>28041</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H34">
         <v>55</v>
@@ -4286,13 +3070,13 @@
         <v>0.621</v>
       </c>
       <c r="J34">
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="K34">
         <v>7</v>
       </c>
       <c r="L34">
-        <v>-10.531</v>
+        <v>-10.531000000000001</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -4301,7 +3085,7 @@
         <v>0.114</v>
       </c>
       <c r="O34">
-        <v>0.276</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -4313,60 +3097,45 @@
         <v>0.184</v>
       </c>
       <c r="S34">
-        <v>85.054</v>
-      </c>
-      <c r="T34" t="s">
-        <v>172</v>
-      </c>
-      <c r="U34" t="s">
-        <v>205</v>
-      </c>
-      <c r="V34" t="s">
-        <v>264</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y34">
+        <v>85.054000000000002</v>
+      </c>
+      <c r="T34">
         <v>164568</v>
       </c>
-      <c r="Z34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="U34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>28041</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E35">
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H35">
         <v>55</v>
       </c>
       <c r="I35">
-        <v>0.346</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="J35">
-        <v>0.506</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="K35">
         <v>10</v>
@@ -4378,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O35">
         <v>0.373</v>
@@ -4390,60 +3159,45 @@
         <v>0.115</v>
       </c>
       <c r="R35">
-        <v>0.0955</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="S35">
-        <v>83.42400000000001</v>
-      </c>
-      <c r="T35" t="s">
-        <v>172</v>
-      </c>
-      <c r="U35" t="s">
-        <v>206</v>
-      </c>
-      <c r="V35" t="s">
-        <v>265</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y35">
+        <v>83.424000000000007</v>
+      </c>
+      <c r="T35">
         <v>192680</v>
       </c>
-      <c r="Z35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="U35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B36">
         <v>28041</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E36">
         <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H36">
         <v>55</v>
       </c>
       <c r="I36">
-        <v>0.665</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="J36">
         <v>0.497</v>
@@ -4452,96 +3206,81 @@
         <v>11</v>
       </c>
       <c r="L36">
-        <v>-7.121</v>
+        <v>-7.1210000000000004</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36">
-        <v>0.0375</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="O36">
-        <v>0.0568</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0.618</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="R36">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S36">
         <v>130.011</v>
       </c>
-      <c r="T36" t="s">
-        <v>172</v>
-      </c>
-      <c r="U36" t="s">
-        <v>207</v>
-      </c>
-      <c r="V36" t="s">
-        <v>266</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y36">
+      <c r="T36">
         <v>174576</v>
       </c>
-      <c r="Z36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="U36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>28041</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E37">
         <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H37">
         <v>27</v>
       </c>
       <c r="I37">
-        <v>0.672</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="J37">
-        <v>0.517</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="K37">
         <v>9</v>
       </c>
       <c r="L37">
-        <v>-5.208</v>
+        <v>-5.2080000000000002</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37">
-        <v>0.0334</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="O37">
-        <v>0.0617</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -4550,60 +3289,45 @@
         <v>0.11</v>
       </c>
       <c r="R37">
-        <v>0.537</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="S37">
         <v>119.991</v>
       </c>
-      <c r="T37" t="s">
-        <v>172</v>
-      </c>
-      <c r="U37" t="s">
-        <v>208</v>
-      </c>
-      <c r="V37" t="s">
-        <v>267</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y37">
+      <c r="T37">
         <v>182271</v>
       </c>
-      <c r="Z37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="U37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B38">
         <v>28041</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H38">
         <v>45</v>
       </c>
       <c r="I38">
-        <v>0.554</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="J38">
         <v>0.36</v>
@@ -4618,75 +3342,60 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0.0292</v>
+        <v>2.92E-2</v>
       </c>
       <c r="O38">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="P38">
-        <v>2.79E-06</v>
+        <v>2.79E-6</v>
       </c>
       <c r="Q38">
-        <v>0.0969</v>
+        <v>9.69E-2</v>
       </c>
       <c r="R38">
         <v>0.252</v>
       </c>
       <c r="S38">
-        <v>82.001</v>
-      </c>
-      <c r="T38" t="s">
-        <v>172</v>
-      </c>
-      <c r="U38" t="s">
-        <v>209</v>
-      </c>
-      <c r="V38" t="s">
-        <v>268</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y38">
+        <v>82.001000000000005</v>
+      </c>
+      <c r="T38">
         <v>277787</v>
       </c>
-      <c r="Z38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="U38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B39">
         <v>28041</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H39">
         <v>42</v>
       </c>
       <c r="I39">
-        <v>0.299</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="J39">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4698,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0.0311</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="O39">
         <v>0.48</v>
@@ -4713,51 +3422,36 @@
         <v>0.19</v>
       </c>
       <c r="S39">
-        <v>146.912</v>
-      </c>
-      <c r="T39" t="s">
-        <v>172</v>
-      </c>
-      <c r="U39" t="s">
-        <v>210</v>
-      </c>
-      <c r="V39" t="s">
-        <v>269</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y39">
+        <v>146.91200000000001</v>
+      </c>
+      <c r="T39">
         <v>200720</v>
       </c>
-      <c r="Z39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="U39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <v>28041</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E40">
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G40" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H40">
         <v>61</v>
@@ -4772,72 +3466,57 @@
         <v>11</v>
       </c>
       <c r="L40">
-        <v>-9.374000000000001</v>
+        <v>-9.3740000000000006</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0.0796</v>
+        <v>7.9600000000000004E-2</v>
       </c>
       <c r="O40">
-        <v>0.171</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="P40">
-        <v>0.431</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="Q40">
-        <v>0.0936</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="R40">
-        <v>0.261</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="S40">
-        <v>99.098</v>
-      </c>
-      <c r="T40" t="s">
-        <v>172</v>
-      </c>
-      <c r="U40" t="s">
-        <v>211</v>
-      </c>
-      <c r="V40" t="s">
-        <v>270</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y40">
+        <v>99.097999999999999</v>
+      </c>
+      <c r="T40">
         <v>219120</v>
       </c>
-      <c r="Z40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="U40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B41">
         <v>28041</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E41">
         <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H41">
         <v>82</v>
@@ -4852,78 +3531,63 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>-7.011</v>
+        <v>-7.0110000000000001</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <v>0.0323</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="O41">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="P41">
-        <v>0.000443</v>
+        <v>4.4299999999999998E-4</v>
       </c>
       <c r="Q41">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="R41">
-        <v>0.827</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="S41">
         <v>137.547</v>
       </c>
-      <c r="T41" t="s">
-        <v>172</v>
-      </c>
-      <c r="U41" t="s">
-        <v>212</v>
-      </c>
-      <c r="V41" t="s">
-        <v>271</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y41">
+      <c r="T41">
         <v>213267</v>
       </c>
-      <c r="Z41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="U41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>28041</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E42">
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H42">
         <v>82</v>
       </c>
       <c r="I42">
-        <v>0.543</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="J42">
         <v>0.87</v>
@@ -4932,22 +3596,22 @@
         <v>9</v>
       </c>
       <c r="L42">
-        <v>-6.514</v>
+        <v>-6.5140000000000002</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <v>0.0428</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="O42">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="P42">
-        <v>0.0009389999999999999</v>
+        <v>9.3899999999999995E-4</v>
       </c>
       <c r="Q42">
-        <v>0.792</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="R42">
         <v>0.754</v>
@@ -4955,129 +3619,99 @@
       <c r="S42">
         <v>100.804</v>
       </c>
-      <c r="T42" t="s">
-        <v>172</v>
-      </c>
-      <c r="U42" t="s">
-        <v>213</v>
-      </c>
-      <c r="V42" t="s">
-        <v>272</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y42">
+      <c r="T42">
         <v>230400</v>
       </c>
-      <c r="Z42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="U42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>28041</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E43">
         <v>60</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H43">
         <v>61</v>
       </c>
       <c r="I43">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J43">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
       <c r="L43">
-        <v>-8.182</v>
+        <v>-8.1820000000000004</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <v>0.0338</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="O43">
-        <v>0.881</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="P43">
-        <v>0.00374</v>
+        <v>3.7399999999999998E-3</v>
       </c>
       <c r="Q43">
         <v>0.106</v>
       </c>
       <c r="R43">
-        <v>0.0859</v>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="S43">
         <v>168.345</v>
       </c>
-      <c r="T43" t="s">
-        <v>172</v>
-      </c>
-      <c r="U43" t="s">
-        <v>214</v>
-      </c>
-      <c r="V43" t="s">
-        <v>273</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="X43" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y43">
+      <c r="T43">
         <v>238653</v>
       </c>
-      <c r="Z43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="U43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>28041</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E44">
         <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G44" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H44">
         <v>61</v>
@@ -5086,7 +3720,7 @@
         <v>0.5</v>
       </c>
       <c r="J44">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="K44">
         <v>11</v>
@@ -5098,90 +3732,75 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="O44">
-        <v>0.00593</v>
+        <v>5.9300000000000004E-3</v>
       </c>
       <c r="P44">
-        <v>9.17E-06</v>
+        <v>9.1700000000000003E-6</v>
       </c>
       <c r="Q44">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="R44">
-        <v>0.261</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="S44">
         <v>139.81</v>
       </c>
-      <c r="T44" t="s">
-        <v>172</v>
-      </c>
-      <c r="U44" t="s">
-        <v>215</v>
-      </c>
-      <c r="V44" t="s">
-        <v>274</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y44">
+      <c r="T44">
         <v>329000</v>
       </c>
-      <c r="Z44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="U44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>28041</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H45">
         <v>27</v>
       </c>
       <c r="I45">
-        <v>0.6879999999999999</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="J45">
-        <v>0.716</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>-5.514</v>
+        <v>-5.5140000000000002</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0.0346</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="O45">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -5190,69 +3809,54 @@
         <v>0.108</v>
       </c>
       <c r="R45">
-        <v>0.708</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="S45">
-        <v>117.957</v>
-      </c>
-      <c r="T45" t="s">
-        <v>172</v>
-      </c>
-      <c r="U45" t="s">
-        <v>216</v>
-      </c>
-      <c r="V45" t="s">
-        <v>275</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y45">
+        <v>117.95699999999999</v>
+      </c>
+      <c r="T45">
         <v>195381</v>
       </c>
-      <c r="Z45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="U45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>28041</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E46">
         <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G46" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H46">
         <v>64</v>
       </c>
       <c r="I46">
-        <v>0.793</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="J46">
-        <v>0.583</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>-5.973</v>
+        <v>-5.9729999999999999</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -5264,7 +3868,7 @@
         <v>0.106</v>
       </c>
       <c r="P46">
-        <v>1.07E-05</v>
+        <v>1.0699999999999999E-5</v>
       </c>
       <c r="Q46">
         <v>0.253</v>
@@ -5275,49 +3879,34 @@
       <c r="S46">
         <v>126.036</v>
       </c>
-      <c r="T46" t="s">
-        <v>172</v>
-      </c>
-      <c r="U46" t="s">
-        <v>217</v>
-      </c>
-      <c r="V46" t="s">
-        <v>276</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y46">
+      <c r="T46">
         <v>217260</v>
       </c>
-      <c r="Z46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="U46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>28041</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E47">
         <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G47" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H47">
         <v>56</v>
@@ -5326,22 +3915,22 @@
         <v>0.626</v>
       </c>
       <c r="J47">
-        <v>0.569</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>-7.971</v>
+        <v>-7.9710000000000001</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0.0457</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="O47">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -5350,158 +3939,128 @@
         <v>0.151</v>
       </c>
       <c r="R47">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="S47">
-        <v>76.992</v>
-      </c>
-      <c r="T47" t="s">
-        <v>172</v>
-      </c>
-      <c r="U47" t="s">
-        <v>218</v>
-      </c>
-      <c r="V47" t="s">
-        <v>277</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y47">
+        <v>76.992000000000004</v>
+      </c>
+      <c r="T47">
         <v>172394</v>
       </c>
-      <c r="Z47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="U47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B48">
         <v>28041</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E48">
         <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H48">
         <v>71</v>
       </c>
       <c r="I48">
-        <v>0.798</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="J48">
-        <v>0.831</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="K48">
         <v>7</v>
       </c>
       <c r="L48">
-        <v>-4.481</v>
+        <v>-4.4809999999999999</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0.171</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="O48">
-        <v>0.697</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="P48">
-        <v>5.87E-05</v>
+        <v>5.8699999999999997E-5</v>
       </c>
       <c r="Q48">
         <v>0.112</v>
       </c>
       <c r="R48">
-        <v>0.721</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="S48">
         <v>132.029</v>
       </c>
-      <c r="T48" t="s">
-        <v>172</v>
-      </c>
-      <c r="U48" t="s">
-        <v>219</v>
-      </c>
-      <c r="V48" t="s">
-        <v>278</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y48">
+      <c r="T48">
         <v>189091</v>
       </c>
-      <c r="Z48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="U48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>28041</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E49">
         <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G49" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H49">
         <v>55</v>
       </c>
       <c r="I49">
-        <v>0.6909999999999999</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="J49">
-        <v>0.677</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="K49">
         <v>4</v>
       </c>
       <c r="L49">
-        <v>-6.689</v>
+        <v>-6.6890000000000001</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0.0727</v>
+        <v>7.2700000000000001E-2</v>
       </c>
       <c r="O49">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -5510,60 +4069,45 @@
         <v>0.629</v>
       </c>
       <c r="R49">
-        <v>0.619</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="S49">
-        <v>145.972</v>
-      </c>
-      <c r="T49" t="s">
-        <v>172</v>
-      </c>
-      <c r="U49" t="s">
-        <v>220</v>
-      </c>
-      <c r="V49" t="s">
-        <v>279</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y49">
+        <v>145.97200000000001</v>
+      </c>
+      <c r="T49">
         <v>154454</v>
       </c>
-      <c r="Z49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="U49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>28041</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G50" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H50">
         <v>47</v>
       </c>
       <c r="I50">
-        <v>0.796</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="J50">
         <v>0.73</v>
@@ -5572,81 +4116,66 @@
         <v>11</v>
       </c>
       <c r="L50">
-        <v>-5.143</v>
+        <v>-5.1429999999999998</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <v>0.0564</v>
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="O50">
         <v>0.107</v>
       </c>
       <c r="P50">
-        <v>6.18E-06</v>
+        <v>6.1800000000000001E-6</v>
       </c>
       <c r="Q50">
         <v>0.248</v>
       </c>
       <c r="R50">
-        <v>0.601</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="S50">
         <v>130.005</v>
       </c>
-      <c r="T50" t="s">
-        <v>172</v>
-      </c>
-      <c r="U50" t="s">
-        <v>221</v>
-      </c>
-      <c r="V50" t="s">
-        <v>280</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y50">
+      <c r="T50">
         <v>201231</v>
       </c>
-      <c r="Z50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="U50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>28041</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E51">
         <v>53</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H51">
         <v>58</v>
       </c>
       <c r="I51">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="J51">
-        <v>0.274</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="K51">
         <v>9</v>
@@ -5658,66 +4187,51 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0.0319</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="O51">
-        <v>0.795</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="P51">
-        <v>0.0145</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Q51">
-        <v>0.582</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="R51">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S51">
-        <v>131.479</v>
-      </c>
-      <c r="T51" t="s">
-        <v>172</v>
-      </c>
-      <c r="U51" t="s">
-        <v>222</v>
-      </c>
-      <c r="V51" t="s">
-        <v>281</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y51">
+        <v>131.47900000000001</v>
+      </c>
+      <c r="T51">
         <v>327200</v>
       </c>
-      <c r="Z51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="U51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B52">
         <v>28041</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E52">
         <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G52" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H52">
         <v>58</v>
@@ -5726,87 +4240,72 @@
         <v>0.62</v>
       </c>
       <c r="J52">
-        <v>0.852</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>-9.131</v>
+        <v>-9.1310000000000002</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <v>0.0608</v>
+        <v>6.08E-2</v>
       </c>
       <c r="O52">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="P52">
-        <v>7.15E-06</v>
+        <v>7.1500000000000002E-6</v>
       </c>
       <c r="Q52">
         <v>0.375</v>
       </c>
       <c r="R52">
-        <v>0.678</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="S52">
         <v>122.65</v>
       </c>
-      <c r="T52" t="s">
-        <v>172</v>
-      </c>
-      <c r="U52" t="s">
-        <v>223</v>
-      </c>
-      <c r="V52" t="s">
-        <v>282</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y52">
+      <c r="T52">
         <v>281813</v>
       </c>
-      <c r="Z52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="U52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B53">
         <v>28041</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E53">
         <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G53" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H53">
         <v>58</v>
       </c>
       <c r="I53">
-        <v>0.668</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="J53">
-        <v>0.786</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="K53">
         <v>5</v>
@@ -5818,72 +4317,57 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>0.08400000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="O53">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>0.521</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="R53">
         <v>0.746</v>
       </c>
       <c r="S53">
-        <v>129.359</v>
-      </c>
-      <c r="T53" t="s">
-        <v>172</v>
-      </c>
-      <c r="U53" t="s">
-        <v>224</v>
-      </c>
-      <c r="V53" t="s">
-        <v>283</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="Y53">
+        <v>129.35900000000001</v>
+      </c>
+      <c r="T53">
         <v>255227</v>
       </c>
-      <c r="Z53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="U53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B54">
         <v>28041</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H54">
         <v>58</v>
       </c>
       <c r="I54">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="J54">
         <v>0.624</v>
@@ -5898,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="N54">
-        <v>0.0436</v>
+        <v>4.36E-2</v>
       </c>
       <c r="O54">
         <v>0.374</v>
@@ -5910,60 +4394,45 @@
         <v>0.11</v>
       </c>
       <c r="R54">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S54">
-        <v>69.355</v>
-      </c>
-      <c r="T54" t="s">
-        <v>172</v>
-      </c>
-      <c r="U54" t="s">
-        <v>225</v>
-      </c>
-      <c r="V54" t="s">
-        <v>284</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y54">
+        <v>69.355000000000004</v>
+      </c>
+      <c r="T54">
         <v>246693</v>
       </c>
-      <c r="Z54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="U54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B55">
         <v>28041</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E55">
         <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G55" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H55">
         <v>58</v>
       </c>
       <c r="I55">
-        <v>0.303</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="J55">
         <v>0.59</v>
@@ -5978,10 +4447,10 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>0.0483</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="O55">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -5990,158 +4459,128 @@
         <v>0.628</v>
       </c>
       <c r="R55">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="S55">
         <v>112.297</v>
       </c>
-      <c r="T55" t="s">
-        <v>172</v>
-      </c>
-      <c r="U55" t="s">
-        <v>226</v>
-      </c>
-      <c r="V55" t="s">
-        <v>285</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="X55" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="Y55">
+      <c r="T55">
         <v>363533</v>
       </c>
-      <c r="Z55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="U55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B56">
         <v>28041</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E56">
         <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H56">
         <v>46</v>
       </c>
       <c r="I56">
-        <v>0.581</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="J56">
-        <v>0.6840000000000001</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="K56">
         <v>10</v>
       </c>
       <c r="L56">
-        <v>-6.281</v>
+        <v>-6.2809999999999997</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0.0382</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="O56">
-        <v>0.0921</v>
+        <v>9.2100000000000001E-2</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0.0861</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="R56">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="S56">
-        <v>147.015</v>
-      </c>
-      <c r="T56" t="s">
-        <v>172</v>
-      </c>
-      <c r="U56" t="s">
-        <v>227</v>
-      </c>
-      <c r="V56" t="s">
-        <v>286</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="X56" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y56">
+        <v>147.01499999999999</v>
+      </c>
+      <c r="T56">
         <v>203213</v>
       </c>
-      <c r="Z56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="U56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B57">
         <v>28041</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E57">
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G57" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H57">
         <v>46</v>
       </c>
       <c r="I57">
-        <v>0.631</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="J57">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="K57">
         <v>9</v>
       </c>
       <c r="L57">
-        <v>-5.679</v>
+        <v>-5.6790000000000003</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0.171</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="O57">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -6150,60 +4589,45 @@
         <v>0.114</v>
       </c>
       <c r="R57">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="S57">
-        <v>129.992</v>
-      </c>
-      <c r="T57" t="s">
-        <v>172</v>
-      </c>
-      <c r="U57" t="s">
-        <v>228</v>
-      </c>
-      <c r="V57" t="s">
-        <v>287</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y57">
+        <v>129.99199999999999</v>
+      </c>
+      <c r="T57">
         <v>219360</v>
       </c>
-      <c r="Z57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="U57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B58">
         <v>28041</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E58">
         <v>66</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G58" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H58">
         <v>67</v>
       </c>
       <c r="I58">
-        <v>0.523</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="J58">
         <v>0.36</v>
@@ -6212,158 +4636,128 @@
         <v>11</v>
       </c>
       <c r="L58">
-        <v>-8.018000000000001</v>
+        <v>-8.0180000000000007</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="O58">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0.0896</v>
+        <v>8.9599999999999999E-2</v>
       </c>
       <c r="R58">
-        <v>0.167</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="S58">
-        <v>141.731</v>
-      </c>
-      <c r="T58" t="s">
-        <v>172</v>
-      </c>
-      <c r="U58" t="s">
-        <v>229</v>
-      </c>
-      <c r="V58" t="s">
-        <v>288</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y58">
+        <v>141.73099999999999</v>
+      </c>
+      <c r="T58">
         <v>180909</v>
       </c>
-      <c r="Z58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="U58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>28041</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E59">
         <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G59" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H59">
         <v>46</v>
       </c>
       <c r="I59">
-        <v>0.412</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="J59">
-        <v>0.669</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="K59">
         <v>11</v>
       </c>
       <c r="L59">
-        <v>-7.863</v>
+        <v>-7.8630000000000004</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <v>0.0341</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="O59">
         <v>0.185</v>
       </c>
       <c r="P59">
-        <v>9.490000000000001E-06</v>
+        <v>9.4900000000000006E-6</v>
       </c>
       <c r="Q59">
-        <v>0.0935</v>
+        <v>9.35E-2</v>
       </c>
       <c r="R59">
         <v>0.122</v>
       </c>
       <c r="S59">
-        <v>134.401</v>
-      </c>
-      <c r="T59" t="s">
-        <v>172</v>
-      </c>
-      <c r="U59" t="s">
-        <v>230</v>
-      </c>
-      <c r="V59" t="s">
-        <v>289</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="X59" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y59">
+        <v>134.40100000000001</v>
+      </c>
+      <c r="T59">
         <v>388840</v>
       </c>
-      <c r="Z59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="U59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>28041</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E60">
         <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G60" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H60">
         <v>56</v>
       </c>
       <c r="I60">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="J60">
         <v>0.441</v>
@@ -6372,22 +4766,22 @@
         <v>9</v>
       </c>
       <c r="L60">
-        <v>-9.855</v>
+        <v>-9.8550000000000004</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0.0358</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="O60">
-        <v>0.0171</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="P60">
-        <v>0.00911</v>
+        <v>9.11E-3</v>
       </c>
       <c r="Q60">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="R60">
         <v>0.154</v>
@@ -6395,149 +4789,14 @@
       <c r="S60">
         <v>132.339</v>
       </c>
-      <c r="T60" t="s">
-        <v>172</v>
-      </c>
-      <c r="U60" t="s">
-        <v>231</v>
-      </c>
-      <c r="V60" t="s">
-        <v>290</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y60">
+      <c r="T60">
         <v>231000</v>
       </c>
-      <c r="Z60">
+      <c r="U60">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1"/>
-    <hyperlink ref="X2" r:id="rId2"/>
-    <hyperlink ref="W3" r:id="rId3"/>
-    <hyperlink ref="X3" r:id="rId4"/>
-    <hyperlink ref="W4" r:id="rId5"/>
-    <hyperlink ref="X4" r:id="rId6"/>
-    <hyperlink ref="W5" r:id="rId7"/>
-    <hyperlink ref="X5" r:id="rId8"/>
-    <hyperlink ref="W6" r:id="rId9"/>
-    <hyperlink ref="X6" r:id="rId10"/>
-    <hyperlink ref="W7" r:id="rId11"/>
-    <hyperlink ref="X7" r:id="rId12"/>
-    <hyperlink ref="W8" r:id="rId13"/>
-    <hyperlink ref="X8" r:id="rId14"/>
-    <hyperlink ref="W9" r:id="rId15"/>
-    <hyperlink ref="X9" r:id="rId16"/>
-    <hyperlink ref="W10" r:id="rId17"/>
-    <hyperlink ref="X10" r:id="rId18"/>
-    <hyperlink ref="W11" r:id="rId19"/>
-    <hyperlink ref="X11" r:id="rId20"/>
-    <hyperlink ref="W12" r:id="rId21"/>
-    <hyperlink ref="X12" r:id="rId22"/>
-    <hyperlink ref="W13" r:id="rId23"/>
-    <hyperlink ref="X13" r:id="rId24"/>
-    <hyperlink ref="W14" r:id="rId25"/>
-    <hyperlink ref="X14" r:id="rId26"/>
-    <hyperlink ref="W15" r:id="rId27"/>
-    <hyperlink ref="X15" r:id="rId28"/>
-    <hyperlink ref="W16" r:id="rId29"/>
-    <hyperlink ref="X16" r:id="rId30"/>
-    <hyperlink ref="W17" r:id="rId31"/>
-    <hyperlink ref="X17" r:id="rId32"/>
-    <hyperlink ref="W18" r:id="rId33"/>
-    <hyperlink ref="X18" r:id="rId34"/>
-    <hyperlink ref="W19" r:id="rId35"/>
-    <hyperlink ref="X19" r:id="rId36"/>
-    <hyperlink ref="W20" r:id="rId37"/>
-    <hyperlink ref="X20" r:id="rId38"/>
-    <hyperlink ref="W21" r:id="rId39"/>
-    <hyperlink ref="X21" r:id="rId40"/>
-    <hyperlink ref="W22" r:id="rId41"/>
-    <hyperlink ref="X22" r:id="rId42"/>
-    <hyperlink ref="W23" r:id="rId43"/>
-    <hyperlink ref="X23" r:id="rId44"/>
-    <hyperlink ref="W24" r:id="rId45"/>
-    <hyperlink ref="X24" r:id="rId46"/>
-    <hyperlink ref="W25" r:id="rId47"/>
-    <hyperlink ref="X25" r:id="rId48"/>
-    <hyperlink ref="W26" r:id="rId49"/>
-    <hyperlink ref="X26" r:id="rId50"/>
-    <hyperlink ref="W27" r:id="rId51"/>
-    <hyperlink ref="X27" r:id="rId52"/>
-    <hyperlink ref="W28" r:id="rId53"/>
-    <hyperlink ref="X28" r:id="rId54"/>
-    <hyperlink ref="W29" r:id="rId55"/>
-    <hyperlink ref="X29" r:id="rId56"/>
-    <hyperlink ref="W30" r:id="rId57"/>
-    <hyperlink ref="X30" r:id="rId58"/>
-    <hyperlink ref="W31" r:id="rId59"/>
-    <hyperlink ref="X31" r:id="rId60"/>
-    <hyperlink ref="W32" r:id="rId61"/>
-    <hyperlink ref="X32" r:id="rId62"/>
-    <hyperlink ref="W33" r:id="rId63"/>
-    <hyperlink ref="X33" r:id="rId64"/>
-    <hyperlink ref="W34" r:id="rId65"/>
-    <hyperlink ref="X34" r:id="rId66"/>
-    <hyperlink ref="W35" r:id="rId67"/>
-    <hyperlink ref="X35" r:id="rId68"/>
-    <hyperlink ref="W36" r:id="rId69"/>
-    <hyperlink ref="X36" r:id="rId70"/>
-    <hyperlink ref="W37" r:id="rId71"/>
-    <hyperlink ref="X37" r:id="rId72"/>
-    <hyperlink ref="W38" r:id="rId73"/>
-    <hyperlink ref="X38" r:id="rId74"/>
-    <hyperlink ref="W39" r:id="rId75"/>
-    <hyperlink ref="X39" r:id="rId76"/>
-    <hyperlink ref="W40" r:id="rId77"/>
-    <hyperlink ref="X40" r:id="rId78"/>
-    <hyperlink ref="W41" r:id="rId79"/>
-    <hyperlink ref="X41" r:id="rId80"/>
-    <hyperlink ref="W42" r:id="rId81"/>
-    <hyperlink ref="X42" r:id="rId82"/>
-    <hyperlink ref="W43" r:id="rId83"/>
-    <hyperlink ref="X43" r:id="rId84"/>
-    <hyperlink ref="W44" r:id="rId85"/>
-    <hyperlink ref="X44" r:id="rId86"/>
-    <hyperlink ref="W45" r:id="rId87"/>
-    <hyperlink ref="X45" r:id="rId88"/>
-    <hyperlink ref="W46" r:id="rId89"/>
-    <hyperlink ref="X46" r:id="rId90"/>
-    <hyperlink ref="W47" r:id="rId91"/>
-    <hyperlink ref="X47" r:id="rId92"/>
-    <hyperlink ref="W48" r:id="rId93"/>
-    <hyperlink ref="X48" r:id="rId94"/>
-    <hyperlink ref="W49" r:id="rId95"/>
-    <hyperlink ref="X49" r:id="rId96"/>
-    <hyperlink ref="W50" r:id="rId97"/>
-    <hyperlink ref="X50" r:id="rId98"/>
-    <hyperlink ref="W51" r:id="rId99"/>
-    <hyperlink ref="X51" r:id="rId100"/>
-    <hyperlink ref="W52" r:id="rId101"/>
-    <hyperlink ref="X52" r:id="rId102"/>
-    <hyperlink ref="W53" r:id="rId103"/>
-    <hyperlink ref="X53" r:id="rId104"/>
-    <hyperlink ref="W54" r:id="rId105"/>
-    <hyperlink ref="X54" r:id="rId106"/>
-    <hyperlink ref="W55" r:id="rId107"/>
-    <hyperlink ref="X55" r:id="rId108"/>
-    <hyperlink ref="W56" r:id="rId109"/>
-    <hyperlink ref="X56" r:id="rId110"/>
-    <hyperlink ref="W57" r:id="rId111"/>
-    <hyperlink ref="X57" r:id="rId112"/>
-    <hyperlink ref="W58" r:id="rId113"/>
-    <hyperlink ref="X58" r:id="rId114"/>
-    <hyperlink ref="W59" r:id="rId115"/>
-    <hyperlink ref="X59" r:id="rId116"/>
-    <hyperlink ref="W60" r:id="rId117"/>
-    <hyperlink ref="X60" r:id="rId118"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>